--- a/data/trans_dic/P1409-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P1409-Provincia-trans_dic.xlsx
@@ -646,7 +646,7 @@
         <v>0.03522643404827276</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.03440772411530088</v>
+        <v>0.03440772411530089</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>0.0388539671871961</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01268658441714787</v>
+        <v>0.0123716702886355</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.01840736860100601</v>
+        <v>0.01766843779432986</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.0171179481584762</v>
+        <v>0.0164377962660773</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.01786496071387554</v>
+        <v>0.0208290716091158</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.01940157782858343</v>
+        <v>0.01947782540056601</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.02346438122312636</v>
+        <v>0.02337462025991461</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.01959560408670384</v>
+        <v>0.01995629552892781</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.02259180760070506</v>
+        <v>0.02235009175905191</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.02396000085152431</v>
+        <v>0.02417181144358597</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.05058920308727125</v>
+        <v>0.05012891184930405</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.06356165982609599</v>
+        <v>0.06558499796076425</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.06932511344531836</v>
+        <v>0.06821643210638681</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.06614205911299946</v>
+        <v>0.07141204466139758</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.06490580538125881</v>
+        <v>0.06407052801278609</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.05691654694586226</v>
+        <v>0.05422941105434004</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.0496632034262448</v>
+        <v>0.05076984801010213</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.05371230002411071</v>
+        <v>0.05377215807319879</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.0522049252530937</v>
+        <v>0.05658249216447744</v>
       </c>
     </row>
     <row r="7">
@@ -773,7 +773,7 @@
         <v>0.02394599485041521</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>0.04537820938262197</v>
+        <v>0.04537820938262198</v>
       </c>
     </row>
     <row r="8">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.004175622125735028</v>
+        <v>0.004166469554358765</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.005551949985863036</v>
+        <v>0.00416868189569401</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.02609471761217218</v>
+        <v>0.02600250048529318</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.01866541998346042</v>
+        <v>0.01959728874455109</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.02140255687865904</v>
+        <v>0.02101041100322453</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.03260273431399403</v>
+        <v>0.03276004481988392</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.01481674440924564</v>
+        <v>0.01509492771258561</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.0157541542339162</v>
+        <v>0.01560312568083515</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.03271720072645028</v>
+        <v>0.03400143726706003</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.02463018717154694</v>
+        <v>0.02251466960000113</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.02544862539130956</v>
+        <v>0.02635172047334303</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.07954652830623767</v>
+        <v>0.07925893148466215</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.05113431360293245</v>
+        <v>0.05521247333479638</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.05316342039023241</v>
+        <v>0.05326892712850904</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.06273351587995171</v>
+        <v>0.06173631385251305</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.03520722996845969</v>
+        <v>0.03394503528582501</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.03601934096591308</v>
+        <v>0.03453464861813057</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.06014767948285518</v>
+        <v>0.06203828404114983</v>
       </c>
     </row>
     <row r="10">
@@ -882,7 +882,7 @@
         <v>0.0276926331423284</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0.04711536148590005</v>
+        <v>0.04711536148590004</v>
       </c>
     </row>
     <row r="11">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.008744744043081759</v>
+        <v>0.006245732206185939</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.006328813128425509</v>
+        <v>0.007934579137697875</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.02500798041890546</v>
+        <v>0.0279159857330058</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.008836914764722365</v>
+        <v>0.008839078045260908</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.01880859941103145</v>
+        <v>0.01872961884496001</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.03396829464737942</v>
+        <v>0.03459554720200531</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.0104701297327415</v>
+        <v>0.0104678677998368</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.01657076789250317</v>
+        <v>0.01646841885648801</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.03401382449104791</v>
+        <v>0.03518916855029373</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.03681707619002916</v>
+        <v>0.03701024705590664</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.04309448133319073</v>
+        <v>0.04240473378489524</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.06417808008113204</v>
+        <v>0.0693211246738805</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.04824299284144721</v>
+        <v>0.04237175402006466</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.06670841510970929</v>
+        <v>0.06563734778384644</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.07190872757105905</v>
+        <v>0.07194948313964983</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.03289216897963078</v>
+        <v>0.03393981215285923</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.04332271537968285</v>
+        <v>0.04315995092588171</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.06223843179591331</v>
+        <v>0.06238717270941081</v>
       </c>
     </row>
     <row r="13">
@@ -973,7 +973,7 @@
         <v>0.04163909876198704</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.03393186517992156</v>
+        <v>0.03393186517992157</v>
       </c>
       <c r="F13" s="5" t="n">
         <v>0.02280832665640358</v>
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.007985248152983293</v>
+        <v>0.008119974631800532</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.02407493182528416</v>
+        <v>0.0229919938295666</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01648364498909474</v>
+        <v>0.01524049020289888</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.01046810643882839</v>
+        <v>0.01041873972411651</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.03372117449438167</v>
+        <v>0.03188816763004237</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.01110519991258521</v>
+        <v>0.01067851435656547</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.01229231988903744</v>
+        <v>0.01271765023084708</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.03320035992014789</v>
+        <v>0.03312418726091176</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.01706968297271188</v>
+        <v>0.0162488640862204</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.03560772075274123</v>
+        <v>0.03964628031170814</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.06649807507790592</v>
+        <v>0.06658191918222381</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.07585524101289644</v>
+        <v>0.08125117934431796</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.04081800770479769</v>
+        <v>0.04065105366263355</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.08088245913705386</v>
+        <v>0.08060411784917003</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.03268478058332936</v>
+        <v>0.03301819016057679</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.03316442619495392</v>
+        <v>0.03469764281516935</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.0657427340742192</v>
+        <v>0.06485251528676912</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.04629600501172579</v>
+        <v>0.04630952660880153</v>
       </c>
     </row>
     <row r="16">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.009227230885431689</v>
+        <v>0.009142402902593504</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.01159539392738514</v>
+        <v>0.009469570241394549</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.004647507917313729</v>
+        <v>0.004681859062648113</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.008668496347183561</v>
+        <v>0.008540789507714402</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.01358539998593016</v>
+        <v>0.01301860952822537</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.02800944581758368</v>
+        <v>0.02651799527648506</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.01312408994510364</v>
+        <v>0.01305816734930399</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.01397554790028749</v>
+        <v>0.01618934881863726</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.01851931914683565</v>
+        <v>0.02013120006129009</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.05249282477877809</v>
+        <v>0.05470596562740667</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.05472480199533967</v>
+        <v>0.05290285846222174</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.04527181357869838</v>
+        <v>0.05030761742192807</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.05899208836576</v>
+        <v>0.05986059593857927</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.06004249934763228</v>
+        <v>0.05795884348029709</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.07758636056819299</v>
+        <v>0.07401619100410331</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.04534356589064254</v>
+        <v>0.04513361311407416</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.04444150511866527</v>
+        <v>0.04645962305120999</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.04984954961765046</v>
+        <v>0.0510007135443355</v>
       </c>
     </row>
     <row r="19">
@@ -1209,7 +1209,7 @@
         <v>0.021549123655334</v>
       </c>
       <c r="K19" s="5" t="n">
-        <v>0.0445512470996529</v>
+        <v>0.04455124709965289</v>
       </c>
     </row>
     <row r="20">
@@ -1220,31 +1220,31 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.01143127173149047</v>
+        <v>0.01153729678866568</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.003345081706195484</v>
+        <v>0.003413604683278454</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.02135072245814235</v>
+        <v>0.02076880535390311</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.01484733905816157</v>
+        <v>0.01488189845294695</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.01390097651159145</v>
+        <v>0.01304177295319285</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.03547325297225479</v>
+        <v>0.0366436029633525</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.01768917356135055</v>
+        <v>0.01637378341959978</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.01154263455543916</v>
+        <v>0.0112519597744093</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.03238899826139766</v>
+        <v>0.03142067098091224</v>
       </c>
     </row>
     <row r="21">
@@ -1255,31 +1255,31 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.05249992031451139</v>
+        <v>0.05267194257068428</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.03371885552640116</v>
+        <v>0.03662307709462102</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.05732436566283786</v>
+        <v>0.05716052968317859</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.06222223399071359</v>
+        <v>0.05780041206980089</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.0558363052429016</v>
+        <v>0.05656132296150865</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.07857327805772825</v>
+        <v>0.08011838281447328</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.04509238634167091</v>
+        <v>0.04403098367076484</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.03704397691868831</v>
+        <v>0.03792576384182565</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.0600805707740115</v>
+        <v>0.05907163580609124</v>
       </c>
     </row>
     <row r="22">
@@ -1300,7 +1300,7 @@
         <v>0.03110069965740028</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.04016817723343668</v>
+        <v>0.04016817723343667</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>0.02158129146598186</v>
@@ -1309,7 +1309,7 @@
         <v>0.04440197027008334</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>0.07823074103751256</v>
+        <v>0.07823074103751254</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>0.01827612926370078</v>
@@ -1318,7 +1318,7 @@
         <v>0.03792273100056607</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>0.05989377352759225</v>
+        <v>0.05989377352759227</v>
       </c>
     </row>
     <row r="23">
@@ -1329,31 +1329,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.00732799882724364</v>
+        <v>0.007232712791253774</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.01863929589494718</v>
+        <v>0.01923989471499101</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.02349255031655023</v>
+        <v>0.02419284276238274</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.01139979622245315</v>
+        <v>0.01179910688246516</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.03007328616986851</v>
+        <v>0.03065384111436045</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.06425085314140405</v>
+        <v>0.06202394937069785</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.01162581796939954</v>
+        <v>0.01143484501825188</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.02831721956766332</v>
+        <v>0.02806522600116533</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.04722197800088539</v>
+        <v>0.04887902834261148</v>
       </c>
     </row>
     <row r="24">
@@ -1364,31 +1364,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.02879635748453094</v>
+        <v>0.02740071701677555</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.0481023887881518</v>
+        <v>0.04907562847084233</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.06408033567676603</v>
+        <v>0.06545980229758239</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.03792574416990806</v>
+        <v>0.03692201853779093</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.06485672767857502</v>
+        <v>0.06180624987307241</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.09745989606217716</v>
+        <v>0.09787451544024994</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.02768550002310563</v>
+        <v>0.02871473989282259</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.04945544143593843</v>
+        <v>0.05030678595042019</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.07481714071932989</v>
+        <v>0.07419281696979153</v>
       </c>
     </row>
     <row r="25">
@@ -1438,31 +1438,31 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.01177317545282141</v>
+        <v>0.01185250827725256</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.0147903747506512</v>
+        <v>0.0149823930813906</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.02739597015275029</v>
+        <v>0.02727085696252813</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.01648759077564473</v>
+        <v>0.01668114796288483</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.02656304042706752</v>
+        <v>0.0283911417821159</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.02695504910085824</v>
+        <v>0.02716932017854187</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.01681991453258763</v>
+        <v>0.01721392838426642</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.0249153564824644</v>
+        <v>0.02467502231654837</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.0302467678537274</v>
+        <v>0.03023278751220183</v>
       </c>
     </row>
     <row r="27">
@@ -1473,31 +1473,31 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.03529422558958707</v>
+        <v>0.03436952813905307</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.03606018509743209</v>
+        <v>0.03616375330799329</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.0581700533563707</v>
+        <v>0.05993409286011147</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.03766552998022782</v>
+        <v>0.03987057374679944</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.0575256640570686</v>
+        <v>0.06110279176643089</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.05060539042590665</v>
+        <v>0.04919212868838004</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.03315165304946015</v>
+        <v>0.03303908126390379</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.0433627591725666</v>
+        <v>0.04347026094041552</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.0484881053408049</v>
+        <v>0.04932537003270952</v>
       </c>
     </row>
     <row r="28">
@@ -1527,7 +1527,7 @@
         <v>0.0398240914492156</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>0.04764710036468307</v>
+        <v>0.04764710036468306</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>0.02314977733220051</v>
@@ -1536,7 +1536,7 @@
         <v>0.03276356610283877</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>0.04320472712868246</v>
+        <v>0.04320472712868245</v>
       </c>
     </row>
     <row r="29">
@@ -1547,31 +1547,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.01491709552948997</v>
+        <v>0.01454015969614824</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.02041850189370339</v>
+        <v>0.02052567734377058</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.03132366422865277</v>
+        <v>0.03139640622144587</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.02153525465828988</v>
+        <v>0.02183268031102076</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.03360114364093895</v>
+        <v>0.03327379597781951</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.04233177123261193</v>
+        <v>0.04222792475395597</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.01982624020628889</v>
+        <v>0.019701698198475</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.02873603704342532</v>
+        <v>0.02833518751906267</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.03884336123399579</v>
+        <v>0.03876746204680678</v>
       </c>
     </row>
     <row r="30">
@@ -1582,31 +1582,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.02409318267194955</v>
+        <v>0.02404766709812177</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.03196767718547255</v>
+        <v>0.03171602182381973</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.04734336112947959</v>
+        <v>0.04752107556135166</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.03295389072489161</v>
+        <v>0.03315164854182196</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.04719236571803469</v>
+        <v>0.04673919134036895</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.05442422434849485</v>
+        <v>0.05438116627672087</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.02705552090568639</v>
+        <v>0.02707911755402076</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.03752083387129256</v>
+        <v>0.03761029370955254</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.04852896017608707</v>
+        <v>0.04808480943010211</v>
       </c>
     </row>
     <row r="31">
@@ -1839,31 +1839,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>3739</v>
+        <v>3646</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>5407</v>
+        <v>5190</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>5458</v>
+        <v>5241</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>5132</v>
+        <v>5983</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>5601</v>
+        <v>5623</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>7416</v>
+        <v>7388</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>11404</v>
+        <v>11614</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>13159</v>
+        <v>13018</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>15212</v>
+        <v>15347</v>
       </c>
     </row>
     <row r="7">
@@ -1874,31 +1874,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>14911</v>
+        <v>14775</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>18672</v>
+        <v>19266</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>22104</v>
+        <v>21750</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>18999</v>
+        <v>20513</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>18739</v>
+        <v>18497</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>17989</v>
+        <v>17140</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>28903</v>
+        <v>29547</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>31285</v>
+        <v>31320</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>33145</v>
+        <v>35925</v>
       </c>
     </row>
     <row r="8">
@@ -1983,31 +1983,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>2111</v>
+        <v>2106</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>2790</v>
+        <v>2095</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>13821</v>
+        <v>13772</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>9776</v>
+        <v>10264</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>11195</v>
+        <v>10990</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>17758</v>
+        <v>17843</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>15251</v>
+        <v>15537</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>16158</v>
+        <v>16003</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>35149</v>
+        <v>36529</v>
       </c>
     </row>
     <row r="11">
@@ -2018,31 +2018,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>12451</v>
+        <v>11382</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>12790</v>
+        <v>13244</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>42133</v>
+        <v>41980</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>26782</v>
+        <v>28918</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>27809</v>
+        <v>27864</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>34169</v>
+        <v>33625</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>36239</v>
+        <v>34939</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>36944</v>
+        <v>35421</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>64618</v>
+        <v>66649</v>
       </c>
     </row>
     <row r="12">
@@ -2127,31 +2127,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>2834</v>
+        <v>2024</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>2016</v>
+        <v>2528</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>7902</v>
+        <v>8821</v>
       </c>
       <c r="F14" s="6" t="n">
         <v>3014</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>6326</v>
+        <v>6299</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>12106</v>
+        <v>12329</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>6963</v>
+        <v>6962</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>10852</v>
+        <v>10785</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>22870</v>
+        <v>23660</v>
       </c>
     </row>
     <row r="15">
@@ -2162,31 +2162,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>11930</v>
+        <v>11993</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>13728</v>
+        <v>13509</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>20280</v>
+        <v>21905</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>16452</v>
+        <v>14450</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>22435</v>
+        <v>22074</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>25627</v>
+        <v>25641</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>21875</v>
+        <v>22572</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>28371</v>
+        <v>28264</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>41848</v>
+        <v>41948</v>
       </c>
     </row>
     <row r="16">
@@ -2271,31 +2271,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>2986</v>
+        <v>3037</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>8907</v>
+        <v>8506</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>6151</v>
+        <v>5687</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>4072</v>
+        <v>4052</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>13060</v>
+        <v>12350</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>4686</v>
+        <v>4506</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>9378</v>
+        <v>9703</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>25141</v>
+        <v>25083</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>13572</v>
+        <v>12920</v>
       </c>
     </row>
     <row r="19">
@@ -2306,31 +2306,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>13317</v>
+        <v>14827</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>24602</v>
+        <v>24633</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>28305</v>
+        <v>30318</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>15876</v>
+        <v>15811</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>31324</v>
+        <v>31217</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>13792</v>
+        <v>13932</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>25302</v>
+        <v>26472</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>49783</v>
+        <v>49109</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>36810</v>
+        <v>36821</v>
       </c>
     </row>
     <row r="20">
@@ -2415,31 +2415,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>1962</v>
+        <v>1944</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>2449</v>
+        <v>2000</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>956</v>
+        <v>963</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>1904</v>
+        <v>1875</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>2970</v>
+        <v>2846</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>6329</v>
+        <v>5992</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>5672</v>
+        <v>5644</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>6007</v>
+        <v>6958</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>7994</v>
+        <v>8689</v>
       </c>
     </row>
     <row r="23">
@@ -2450,31 +2450,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>11161</v>
+        <v>11631</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>11559</v>
+        <v>11174</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>9311</v>
+        <v>10347</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>12954</v>
+        <v>13145</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>13125</v>
+        <v>12669</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>17532</v>
+        <v>16725</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>19598</v>
+        <v>19507</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>19101</v>
+        <v>19969</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>21517</v>
+        <v>22014</v>
       </c>
     </row>
     <row r="24">
@@ -2559,31 +2559,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>3132</v>
+        <v>3161</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>880</v>
+        <v>898</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>5780</v>
+        <v>5622</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>4129</v>
+        <v>4139</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>3797</v>
+        <v>3562</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>9333</v>
+        <v>9641</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>9766</v>
+        <v>9040</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>6190</v>
+        <v>6034</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>17289</v>
+        <v>16773</v>
       </c>
     </row>
     <row r="27">
@@ -2594,31 +2594,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>14384</v>
+        <v>14431</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>8872</v>
+        <v>9636</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>15518</v>
+        <v>15474</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>17304</v>
+        <v>16074</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>15250</v>
+        <v>15448</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>20673</v>
+        <v>21079</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>24894</v>
+        <v>24308</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>19864</v>
+        <v>20337</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>32071</v>
+        <v>31533</v>
       </c>
     </row>
     <row r="28">
@@ -2703,31 +2703,31 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>4857</v>
+        <v>4794</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>12238</v>
+        <v>12632</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>16831</v>
+        <v>17333</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>7910</v>
+        <v>8187</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>20789</v>
+        <v>21191</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>49517</v>
+        <v>47801</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>15772</v>
+        <v>15513</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>38167</v>
+        <v>37828</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>70225</v>
+        <v>72689</v>
       </c>
     </row>
     <row r="31">
@@ -2738,31 +2738,31 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>19086</v>
+        <v>18161</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>31582</v>
+        <v>32221</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>45909</v>
+        <v>46897</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>26315</v>
+        <v>25618</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>44835</v>
+        <v>42726</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>75111</v>
+        <v>75430</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>37559</v>
+        <v>38956</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>66659</v>
+        <v>67806</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>111262</v>
+        <v>110333</v>
       </c>
     </row>
     <row r="32">
@@ -2847,31 +2847,31 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>9172</v>
+        <v>9234</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>11516</v>
+        <v>11665</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>21864</v>
+        <v>21764</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>13543</v>
+        <v>13702</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>21946</v>
+        <v>23456</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>22389</v>
+        <v>22567</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>26920</v>
+        <v>27551</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>39983</v>
+        <v>39597</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>49262</v>
+        <v>49240</v>
       </c>
     </row>
     <row r="35">
@@ -2882,31 +2882,31 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>27498</v>
+        <v>26777</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>28076</v>
+        <v>28156</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>46424</v>
+        <v>47832</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>30938</v>
+        <v>32749</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>47526</v>
+        <v>50481</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>42033</v>
+        <v>40859</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>53059</v>
+        <v>52879</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>69586</v>
+        <v>69759</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>78972</v>
+        <v>80335</v>
       </c>
     </row>
     <row r="36">
@@ -2991,31 +2991,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>51118</v>
+        <v>49826</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>69308</v>
+        <v>69671</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>110526</v>
+        <v>110783</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>76534</v>
+        <v>77592</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>119101</v>
+        <v>117940</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>157873</v>
+        <v>157486</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>138401</v>
+        <v>137532</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>199396</v>
+        <v>196615</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>281923</v>
+        <v>281372</v>
       </c>
     </row>
     <row r="39">
@@ -3026,31 +3026,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>82562</v>
+        <v>82406</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>108509</v>
+        <v>107655</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>167052</v>
+        <v>167679</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>117115</v>
+        <v>117818</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>167275</v>
+        <v>165669</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>202971</v>
+        <v>202811</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>188866</v>
+        <v>189031</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>260353</v>
+        <v>260974</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>352221</v>
+        <v>348997</v>
       </c>
     </row>
     <row r="40">
